--- a/body composition.xlsx
+++ b/body composition.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10B6BBB-5A4C-DF45-92B9-C21BC532F088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93429FE-CC61-F744-8BF9-C56F0A31B478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{69C0E7DD-4532-224C-8540-24B3E5F96710}"/>
+    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{69C0E7DD-4532-224C-8540-24B3E5F96710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
   <si>
     <t>phenotype</t>
   </si>
@@ -61,12 +61,21 @@
   <si>
     <t>ob/ob</t>
   </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this round of experiment, the HFD and ob/ob mice are older than typically used and thus much higher body weight than the standard phenotype, especially for HFD (of standard 45 g BW). These data are not used for body composition analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EchoMRI measured on 7/31/24.. ob/ob mice, 9 week @ 5/29/24; HFD, 14 week @ 7/25/24; WT, 8 week @ 5/14/24. This data is used in body composition analysis, as the HFD and ob/ob mice measured has body weight similar to the "standard" level used for most of the 13C-infusion experiment.  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,22 +84,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -107,20 +133,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,236 +671,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB88D8-1C23-5745-90EA-3E1D76CA851D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="188" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1.44</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>25.74</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>26.3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>26.52</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12">
         <v>2.27</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>22.52</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>25.68</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>31.47</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>33.590000000000003</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>26.36</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>33.71</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>29.88</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>32.25</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>32.380000000000003</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>33.909999999999997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="12">
         <v>25.86</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <v>29.37</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="13">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>32.94</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>33.65</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>67.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>32.130000000000003</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>35.15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>36.64</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>27.81</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="14">
         <v>64.5</v>
       </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>36.94</v>
+      </c>
+      <c r="B17" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>31.11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B19" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19.47</v>
+      </c>
+      <c r="B20" s="3">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>17.68</v>
+      </c>
+      <c r="B21" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19.18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="B24" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="B26" s="3">
+        <v>30.4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="B27" s="3">
+        <v>30.6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="B28" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G13"/>
+    <mergeCell ref="D14:E28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/body composition.xlsx
+++ b/body composition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93429FE-CC61-F744-8BF9-C56F0A31B478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277793F7-BF05-1E4E-A390-9773D6A5B6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{69C0E7DD-4532-224C-8540-24B3E5F96710}"/>
+    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{69C0E7DD-4532-224C-8540-24B3E5F96710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -294,25 +294,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -320,21 +335,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,7 +674,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="188" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,10 +695,10 @@
       <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -716,8 +716,8 @@
       <c r="E2" s="6">
         <v>27.9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -735,8 +735,8 @@
       <c r="E3" s="6">
         <v>28.3</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -754,27 +754,27 @@
       <c r="E4" s="6">
         <v>29.3</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>2.27</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>22.52</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>25.68</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -792,8 +792,8 @@
       <c r="E6" s="6">
         <v>66.3</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -811,8 +811,8 @@
       <c r="E7" s="6">
         <v>60</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -830,8 +830,8 @@
       <c r="E8" s="6">
         <v>63</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -849,27 +849,27 @@
       <c r="E9" s="6">
         <v>67</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>25.86</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>29.37</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>54.9</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -887,8 +887,8 @@
       <c r="E11" s="6">
         <v>67.2</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -906,8 +906,8 @@
       <c r="E12" s="6">
         <v>68.599999999999994</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -922,11 +922,11 @@
       <c r="D13" s="5">
         <v>27.81</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>64.5</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -938,10 +938,10 @@
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -955,8 +955,8 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -970,9 +970,9 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,9 +985,9 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1000,9 +1000,9 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1015,8 +1015,8 @@
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -1030,8 +1030,8 @@
       <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -1045,8 +1045,8 @@
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -1060,8 +1060,8 @@
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -1075,8 +1075,8 @@
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -1090,8 +1090,8 @@
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1105,8 +1105,8 @@
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
@@ -1120,8 +1120,8 @@
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -1135,8 +1135,8 @@
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
@@ -1150,8 +1150,8 @@
       <c r="C28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
